--- a/Tratamento/src/Dados_limpos/novos/limpo_petlove_20250928_100517.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petlove_20250928_100517.xlsx
@@ -7393,7 +7393,7 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -9253,7 +9253,7 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
@@ -9749,7 +9749,7 @@
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
@@ -9811,7 +9811,7 @@
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
